--- a/validation/tripleWall.xlsx
+++ b/validation/tripleWall.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryshan/Toby Playpad Dropbox/Shannon Ryan/GitHub/pyBLOSSUM/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deakin365-my.sharepoint.com/personal/shannon_ryan_deakin_edu_au/Documents/Documents/GitHub/pyBLOSSUM/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04665DBF-6B09-E04B-89B8-5C76A927A7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{04665DBF-6B09-E04B-89B8-5C76A927A7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ED65B41-6A7D-4439-B276-B15C84D749EF}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3B040CA-69B4-9245-BC18-5CDDCAF2FE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="BLC" sheetId="3" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8032,7 +8032,7 @@
             <c:v>python - config3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -8976,7 +8976,7 @@
             <c:v>python - config4</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -9920,7 +9920,7 @@
             <c:v>python - config5</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
@@ -10864,7 +10864,7 @@
             <c:v>python - config6</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
                 <a:srgbClr val="C00000"/>
               </a:solidFill>
@@ -12685,7 +12685,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E7FA7087-BD89-B84D-807E-B9B7BEBE2506}">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12696,7 +12696,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6078428"/>
+    <xdr:ext cx="9277089" cy="6041199"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -13049,13 +13049,13 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -13063,13 +13063,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>97</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -13225,7 +13225,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>250.00344737241272</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -13437,7 +13437,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -13463,10 +13463,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -13544,10 +13544,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.1</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>2.7011080315560161</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.2</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>1.7434831179131085</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.3</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>1.3495911274777015</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0.4</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>1.1253653489367947</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0.5</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>0.97743348868304925</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0.6</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>0.8711200438314991</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.7</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>0.79030699105768254</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.8</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>0.72638912047713378</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.9</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>0.67431446283815988</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>0.63090360196371498</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.1000000000000001</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>0.59404624957726992</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.2</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0.56228150534987198</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.3</v>
       </c>
@@ -13869,7 +13869,7 @@
         <v>0.53456286312129464</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>1.4</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>0.51011913658411578</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>1.5</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>0.48836830982517598</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>1.6</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>0.46886209429323583</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>1.7</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>0.45124906984395391</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>1.8</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>0.43524948591031454</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1.9</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>0.42063760985983606</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>0.4072290949505834</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.1</v>
       </c>
@@ -14053,7 +14053,7 @@
         <v>0.39487176767995491</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.2000000000000002</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0.38343879448647233</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.2999999999999998</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>0.37282353585995776</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2.4</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>0.36293561776851146</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>2.5</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>0.35369789495193077</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>2.6</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>0.34504407688513622</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2.7</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>0.33691685247110414</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>2.8</v>
       </c>
@@ -14214,7 +14214,7 @@
         <v>0.32926639451976047</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>2.9</v>
       </c>
@@ -14237,7 +14237,7 @@
         <v>0.32204915658200445</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>0.31522689709432122</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3.1</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>0.30876588190299731</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.2</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>0.30263622797742523</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3.3</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0.29681135977336104</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>3.4</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>0.29126755614943312</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>3.5</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>0.28598357058496426</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>3.6</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>0.28094031112404078</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>3.7</v>
       </c>
@@ -14421,7 +14421,7 @@
         <v>0.27612056928537176</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>3.8</v>
       </c>
@@ -14444,7 +14444,7 @@
         <v>0.27150878934948502</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>3.9</v>
       </c>
@@ -14467,7 +14467,7 @@
         <v>0.26709087112372121</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>0.26285400060817682</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4.0999999999999996</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>0.25878650402867187</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4.2</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>0.25487772153041749</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4.3</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>0.25548197326023087</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>4.4000000000000004</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>0.25936128266450653</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>4.5</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>0.2632405920687822</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>4.5999999999999996</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>0.26711990147305786</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>4.7</v>
       </c>
@@ -14651,7 +14651,7 @@
         <v>0.27099921087733353</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>4.8</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0.2748785202816092</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>4.9000000000000004</v>
       </c>
@@ -14697,7 +14697,7 @@
         <v>0.27875782968588486</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>0.28263713909016053</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5.0999999999999996</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>0.28651644849443625</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5.2</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>0.29039575789871191</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>5.3</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>0.29427506730298758</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>5.4</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>0.29815437670726325</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>5.5</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>0.30203368611153891</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>5.6</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>0.30591299551581458</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>5.7</v>
       </c>
@@ -14881,7 +14881,7 @@
         <v>0.30979230492009024</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>5.8</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>0.31367161432436591</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>5.9</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>0.31755092372864158</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6</v>
       </c>
@@ -14950,7 +14950,7 @@
         <v>0.32143023313291724</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6.1</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v>0.32530954253719291</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>6.2</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0.32918885194146863</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6.3</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0.33306816134574424</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>6.4</v>
       </c>
@@ -15042,7 +15042,7 @@
         <v>0.33694747075001996</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>6.5</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>0.34082678015429563</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>6.6</v>
       </c>
@@ -15088,7 +15088,7 @@
         <v>0.34470608955857129</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>6.7</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>0.34858539896284696</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>6.8</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>0.35246470836712263</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>6.9</v>
       </c>
@@ -15157,7 +15157,7 @@
         <v>0.35634401777139829</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>0.36022332717567396</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>7.1</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>0.36410263657994962</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.2</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>0.36798194598422529</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.3</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>0.37186125538850101</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>7.4</v>
       </c>
@@ -15272,7 +15272,7 @@
         <v>0.37574056479277662</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>7.5</v>
       </c>
@@ -15295,7 +15295,7 @@
         <v>0.37961987419705234</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>7.6</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>0.38349918360132795</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>7.7</v>
       </c>
@@ -15341,7 +15341,7 @@
         <v>0.38737849300560367</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>7.8</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>0.39125780240987934</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>7.9</v>
       </c>
@@ -15387,7 +15387,7 @@
         <v>0.39513711181415501</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8</v>
       </c>
@@ -15410,7 +15410,7 @@
         <v>0.39901642121843067</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8.1</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>0.40289573062270634</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>8.1999999999999993</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>0.40677504002698206</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>8.3000000000000007</v>
       </c>
@@ -15479,7 +15479,7 @@
         <v>0.41065434943125767</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>8.4</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>0.41453365883553339</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>8.5</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>0.418412968239809</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>8.6</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>0.42229227764408472</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>8.6999999999999993</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>0.42617158704836033</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>8.8000000000000007</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>0.43005089645263606</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>8.9</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>0.43393020585691172</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>0.43780951526118739</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>9.1</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>0.44168882466546305</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>9.1999999999999993</v>
       </c>
@@ -15686,7 +15686,7 @@
         <v>0.44556813406973872</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>9.3000000000000007</v>
       </c>
@@ -15709,7 +15709,7 @@
         <v>0.44944744347401444</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>9.4</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>0.45332675287829005</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>9.5</v>
       </c>
@@ -15755,7 +15755,7 @@
         <v>0.45720606228256577</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>9.6</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>0.46108537168684138</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>9.6999999999999993</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>0.4649646810911171</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>9.8000000000000007</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>0.46884399049539272</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>9.9</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>0.47268762966444833</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0.46953110323556618</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>10.1</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>0.46642675118053928</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>10.199999999999999</v>
       </c>
@@ -15916,7 +15916,7 @@
         <v>0.46337320721738701</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>10.3</v>
       </c>
@@ -15939,7 +15939,7 @@
         <v>0.46036915378143617</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>10.4</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>0.45741331983574646</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>10.5</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0.45450447879989364</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>10.6</v>
       </c>
@@ -16008,7 +16008,7 @@
         <v>0.45164144658965344</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>10.7</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>0.44882307976066771</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>10.8</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>0.44604827374966188</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>10.9</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>0.44331596120723965</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>0.44062511041669616</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>11.1</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>0.43797472379367358</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>11.2</v>
       </c>
@@ -16146,7 +16146,7 @@
         <v>0.43536383646184273</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>11.3</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>0.43279151490011697</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>11.4</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>0.43025685565720828</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>11.5</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>0.42775898412961827</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>11.6</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>0.42529705339941087</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>11.7</v>
       </c>
@@ -16261,7 +16261,7 @@
         <v>0.42287024312835697</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>11.8</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>0.42047775850525965</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>11.9</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>0.41811882924348015</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>0.41579270862586648</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>12.1</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>0.41349867259447415</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>12.2</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>0.41123601888262618</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>12.3</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>0.40900406618701191</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>12.4</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>0.40680215337767434</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>12.5</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>0.40462963874385827</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>12.6</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>0.40248589927381961</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>12.7</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>0.40037032996681376</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>12.8</v>
       </c>
@@ -16514,7 +16514,7 @@
         <v>0.39828234317558214</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>12.9</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>0.39622136797775859</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>13</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>0.39418684957471262</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>13.1</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>0.39217824871642998</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>13.2</v>
       </c>
@@ -16606,7 +16606,7 @@
         <v>0.3901950411511137</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>13.3</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>0.38823671709826607</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>13.4</v>
       </c>
@@ -16652,7 +16652,7 @@
         <v>0.3863027807440812</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>13.5</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>0.38439274975804383</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>13.6</v>
       </c>
@@ -16698,7 +16698,7 @@
         <v>0.38250615482969669</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>13.7</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>0.38064253922459024</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>13.8</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.37880145835848955</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>13.9</v>
       </c>
@@ -16767,7 +16767,7 @@
         <v>0.37698247938896001</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>14</v>
       </c>
@@ -16790,7 +16790,7 @@
         <v>0.37518518082350488</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>14.1</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>0.3734091521434687</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>14.2</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>0.37165399344296896</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>14.3</v>
       </c>
@@ -16859,7 +16859,7 @@
         <v>0.36991931508215092</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>14.4</v>
       </c>
@@ -16882,7 +16882,7 @@
         <v>0.36820473735410469</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171">
         <v>14.5</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>0.36650989016481345</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172">
         <v>14.6</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>0.36483441272553901</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173">
         <v>14.7</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>0.36317795325707847</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>14.8</v>
       </c>
@@ -16974,7 +16974,7 @@
         <v>0.36154016870535721</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175">
         <v>14.9</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>0.35992072446785101</v>
       </c>
     </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176">
         <v>15</v>
       </c>
@@ -17034,13 +17034,13 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -17144,7 +17144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -17170,7 +17170,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -17196,7 +17196,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -17274,7 +17274,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -17404,7 +17404,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -17456,7 +17456,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.1</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>2.69151783667186</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.2</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>1.7372929386671501</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0.3</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>1.34479944873874</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0.4</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>1.12136977642133</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0.5</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>0.97396314335318701</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0.6</v>
       </c>
@@ -17617,7 +17617,7 @@
         <v>0.86802716087745402</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0.7</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>0.78750103217932399</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0.8</v>
       </c>
@@ -17663,7 +17663,7 @@
         <v>0.72381009988790901</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0.9</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>0.67192033160154496</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>1</v>
       </c>
@@ -17709,7 +17709,7 @@
         <v>0.62866359955534801</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1.1000000000000001</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>0.59193710798164001</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1.2</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>0.56028514342985203</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1.3</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>0.532664915325327</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1.4</v>
       </c>
@@ -17801,7 +17801,7 @@
         <v>0.50830797543216499</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1.5</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>0.486634374265491</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1.6</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>0.46719741490776401</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>1.7</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0.44964692492026398</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1.8</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>0.43370414698112603</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1.9</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>0.41914414991412802</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>0.40578324149435502</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2.1</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>0.39346978850620101</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2.2000000000000002</v>
       </c>
@@ -17985,7 +17985,7 @@
         <v>0.38207740770656201</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>2.2999999999999998</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>0.37149983820531901</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>2.4</v>
       </c>
@@ -18031,7 +18031,7 @@
         <v>0.36164702684059002</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>2.5</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>0.35244210225386902</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>2.6</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>0.3438190092824</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>2.7</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>0.33572064031031501</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>2.8</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>0.32809734505733401</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>2.9</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>0.32090573168458603</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>3</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>0.31410769440396502</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3.1</v>
       </c>
@@ -18192,7 +18192,7 @@
         <v>0.30766961883375599</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>3.2</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>0.30156172804206499</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>3.3</v>
       </c>
@@ -18238,7 +18238,7 @@
         <v>0.29575754084024097</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3.4</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>0.290233420308041</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>3.5</v>
       </c>
@@ -18284,7 +18284,7 @@
         <v>0.28496819535985901</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>3.6</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>0.27994284182513901</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>3.7</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>0.27514021232073599</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>3.8</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>0.27054480635724498</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3.9</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>0.26614257380427703</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
@@ -18399,7 +18399,7 @@
         <v>0.26192074615761002</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4.0999999999999996</v>
       </c>
@@ -18422,7 +18422,7 @@
         <v>0.25786769109041502</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4.2</v>
       </c>
@@ -18445,7 +18445,7 @@
         <v>0.25397278659536499</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4.3</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>0.25459188871888799</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4.4000000000000004</v>
       </c>
@@ -18491,7 +18491,7 @@
         <v>0.25848705512081099</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4.5</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>0.26238222152273399</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>4.5999999999999996</v>
       </c>
@@ -18537,7 +18537,7 @@
         <v>0.26627738792465699</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>4.7</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0.27017255432657999</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4.8</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>0.27406772072850299</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>4.9000000000000004</v>
       </c>
@@ -18606,7 +18606,7 @@
         <v>0.277962887130426</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -18629,7 +18629,7 @@
         <v>0.281858053532349</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5.0999999999999996</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>0.285753219934272</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5.2</v>
       </c>
@@ -18675,7 +18675,7 @@
         <v>0.289648386336195</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5.3</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>0.293543552738118</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5.4</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>0.297438719140041</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5.5</v>
       </c>
@@ -18744,7 +18744,7 @@
         <v>0.301333885541964</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5.6</v>
       </c>
@@ -18767,7 +18767,7 @@
         <v>0.305229051943887</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5.7</v>
       </c>
@@ -18790,7 +18790,7 @@
         <v>0.30912421834581</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5.8</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>0.313019384747733</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>5.9</v>
       </c>
@@ -18836,7 +18836,7 @@
         <v>0.316914551149656</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>6</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>0.320809717551579</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>6.1</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0.324704883953502</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>6.2</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>0.328600050355425</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>6.3</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>0.332495216757348</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>6.4</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>0.336390383159271</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>6.5</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>0.340285549561194</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>6.6</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>0.344180715963116</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>6.7</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>0.348075882365039</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>6.8</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>0.351971048766962</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>6.9</v>
       </c>
@@ -19066,7 +19066,7 @@
         <v>0.355866215168885</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>7</v>
       </c>
@@ -19089,7 +19089,7 @@
         <v>0.359761381570808</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>7.1</v>
       </c>
@@ -19112,7 +19112,7 @@
         <v>0.363656547972731</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>7.2</v>
       </c>
@@ -19135,7 +19135,7 @@
         <v>0.367551714374654</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>7.3</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>0.371446880776577</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>7.4</v>
       </c>
@@ -19181,7 +19181,7 @@
         <v>0.3753420471785</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>7.5</v>
       </c>
@@ -19204,7 +19204,7 @@
         <v>0.379237213580423</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>7.6</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>0.38313237998234601</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>7.7</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>0.38702754638426901</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>7.8</v>
       </c>
@@ -19273,7 +19273,7 @@
         <v>0.39092271278619201</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>7.9</v>
       </c>
@@ -19296,7 +19296,7 @@
         <v>0.39481787918811501</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>8</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>0.39871304559003801</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>8.1</v>
       </c>
@@ -19342,7 +19342,7 @@
         <v>0.40260821199196101</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>8.1999999999999993</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>0.40650337839388401</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>8.3000000000000007</v>
       </c>
@@ -19388,7 +19388,7 @@
         <v>0.41039854479580701</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>8.4</v>
       </c>
@@ -19411,7 +19411,7 @@
         <v>0.41429371119773001</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>8.5</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>0.41818887759965301</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>8.6</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>0.42208404400157601</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>8.6999999999999993</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>0.42597921040349901</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>8.8000000000000007</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>0.42987437680542201</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>8.9</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>0.43376954320734501</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>9</v>
       </c>
@@ -19549,7 +19549,7 @@
         <v>0.43766470960926801</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>9.1</v>
       </c>
@@ -19572,7 +19572,7 @@
         <v>0.44155987601119101</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>9.1999999999999993</v>
       </c>
@@ -19595,7 +19595,7 @@
         <v>0.44545504241311401</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>9.3000000000000007</v>
       </c>
@@ -19618,7 +19618,7 @@
         <v>0.44935020881503701</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>9.4</v>
       </c>
@@ -19641,7 +19641,7 @@
         <v>0.45324537521696001</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>9.5</v>
       </c>
@@ -19664,7 +19664,7 @@
         <v>0.45714054161888301</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>9.6</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>0.46103570802080601</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>9.6999999999999993</v>
       </c>
@@ -19710,7 +19710,7 @@
         <v>0.46493087442272901</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>9.8000000000000007</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>0.46882604082465201</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>9.9</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>0.47268545697736303</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>10</v>
       </c>
@@ -19779,7 +19779,7 @@
         <v>0.46952894505731002</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10.1</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>0.46642460727129498</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>10.199999999999999</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>0.46337107734361799</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>10.3</v>
       </c>
@@ -19848,7 +19848,7 @@
         <v>0.46036703771566201</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>10.4</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>0.457411217356328</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10.5</v>
       </c>
@@ -19894,7 +19894,7 @@
         <v>0.45450238969083001</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>10.6</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>0.45163937064038601</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>10.7</v>
       </c>
@@ -19940,7 +19940,7 @@
         <v>0.44882101676589498</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>10.8</v>
       </c>
@@ -19963,7 +19963,7 @@
         <v>0.44604622350915801</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>10.9</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>0.44331392352568499</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>11</v>
       </c>
@@ -20009,7 +20009,7 @@
         <v>0.440623085103515</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>11.1</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>0.43797271066287302</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>11.2</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>0.43536183533186601</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11.3</v>
       </c>
@@ -20078,7 +20078,7 @@
         <v>0.43278952559369899</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>11.4</v>
       </c>
@@ -20101,7 +20101,7 @@
         <v>0.43025487800123602</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>11.5</v>
       </c>
@@ -20124,7 +20124,7 @@
         <v>0.42775701795499799</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>11.6</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>0.425295098540943</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>11.7</v>
       </c>
@@ -20170,7 +20170,7 @@
         <v>0.42286829942461102</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>11.8</v>
       </c>
@@ -20193,7 +20193,7 @@
         <v>0.42047582579845999</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>11.9</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>0.418116907379391</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>12</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>0.41579079745368502</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>12.1</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>0.41349677196672402</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>12.2</v>
       </c>
@@ -20285,7 +20285,7 @@
         <v>0.41123412865505998</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>12.3</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>0.40900218621851497</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>12.4</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>0.406800283530169</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>12.5</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>0.40462777888221702</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>12.6</v>
       </c>
@@ -20377,7 +20377,7 @@
         <v>0.40248404926577902</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>12.7</v>
       </c>
@@ -20400,7 +20400,7 @@
         <v>0.40036848968289102</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>12.8</v>
       </c>
@@ -20423,7 +20423,7 @@
         <v>0.39828051248899499</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>12.9</v>
       </c>
@@ -20446,7 +20446,7 @@
         <v>0.39621954676435001</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>13</v>
       </c>
@@ -20469,7 +20469,7 @@
         <v>0.394185037712875</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>13.1</v>
       </c>
@@ -20492,7 +20492,7 @@
         <v>0.392176446087034</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152">
         <v>13.2</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>0.39019324763744001</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153">
         <v>13.3</v>
       </c>
@@ -20538,7 +20538,7 @@
         <v>0.38823493258594</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154">
         <v>13.4</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>0.38630100512100501</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155">
         <v>13.5</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>0.38439098291433799</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156">
         <v>13.6</v>
       </c>
@@ -20607,7 +20607,7 @@
         <v>0.38250439665763802</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157">
         <v>13.7</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>0.38064078961855602</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>13.8</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>0.37879971721489902</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159">
         <v>13.9</v>
       </c>
@@ -20676,7 +20676,7 @@
         <v>0.37698074660622299</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160">
         <v>14</v>
       </c>
@@ -20699,7 +20699,7 @@
         <v>0.37518345630196898</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>14.1</v>
       </c>
@@ -20722,7 +20722,7 @@
         <v>0.373407435785367</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>14.2</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>0.37165228515237397</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163">
         <v>14.3</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>0.36991761476492602</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164">
         <v>14.4</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>0.36820304491785799</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165">
         <v>14.5</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>0.36650820551885399</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>14.6</v>
       </c>
@@ -20837,7 +20837,7 @@
         <v>0.36483273578083503</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167">
         <v>14.7</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>0.36317628392621498</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168">
         <v>14.8</v>
       </c>
@@ -20883,7 +20883,7 @@
         <v>0.361538506902495</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169">
         <v>14.9</v>
       </c>
@@ -20906,7 +20906,7 @@
         <v>0.35991907010869101</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170">
         <v>15</v>
       </c>
@@ -20941,7 +20941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20954,294 +20954,294 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>74</v>
       </c>
